--- a/doc/Scrum/Retrospective/Retrospective of Week 5.xlsx
+++ b/doc/Scrum/Retrospective/Retrospective of Week 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\template\doc\Scrum\Retrospective\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53DD571-6A9F-4B06-9017-920253117359}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC558AD9-C894-4DF7-B501-0D9A08628F10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{019C76C2-9617-46B2-8B93-7BD3D6FE6D21}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Sprint Retrospective</t>
   </si>
@@ -179,6 +179,15 @@
   <si>
     <t>Postgres was abandoned, migrating to mySQL</t>
   </si>
+  <si>
+    <t>Adjustements from last week</t>
+  </si>
+  <si>
+    <t>old adjustments:</t>
+  </si>
+  <si>
+    <t>what we did with the adjustments:</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,11 +329,175 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -717,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795C9D11-0FE8-4737-8352-388B07DB3217}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -1564,15 +1737,17 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="1"/>
+    <row r="26" spans="1:26" ht="45.6">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1593,10 +1768,12 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="1"/>
+      <c r="A27" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1620,11 +1797,13 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:26" ht="40.200000000000003">
+      <c r="A28" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -28557,52 +28736,102 @@
       <c r="Z989" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G29:G989">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G29:G989">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G29:G989">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G29:G989">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G29:G989">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G28">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G28">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="G27:G28">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
+  <conditionalFormatting sqref="G27:G28">
     <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
+  <conditionalFormatting sqref="G27:G28">
     <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"E"</formula>
     </cfRule>
